--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_44.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_44.xlsx
@@ -508,99 +508,99 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_8</t>
+          <t>model_1_44_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998856397216896</v>
+        <v>0.949369895906277</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8259459878106771</v>
+        <v>0.7504477943790741</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8169784879949711</v>
+        <v>0.7379587936495557</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997582458605678</v>
+        <v>0.9389559395181523</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0004760277115238739</v>
+        <v>0.1774843656615203</v>
       </c>
       <c r="G2" t="n">
-        <v>1.163899980955035</v>
+        <v>1.66875674806938</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6546573362449839</v>
+        <v>0.9373062010934011</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001056566435435817</v>
+        <v>0.4048093123419684</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0484780640417263</v>
+        <v>1.421304745906603</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02181805929783568</v>
+        <v>0.4212889337040795</v>
       </c>
       <c r="L2" t="n">
-        <v>1.007319057811863</v>
+        <v>0.9310568795319516</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02216167192171885</v>
+        <v>0.4279238132754886</v>
       </c>
       <c r="N2" t="n">
-        <v>145.3000689758806</v>
+        <v>37.45774550945234</v>
       </c>
       <c r="O2" t="n">
-        <v>286.635241519097</v>
+        <v>74.42232909767817</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_9</t>
+          <t>model_1_44_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998844530810277</v>
+        <v>0.9497098469843946</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8259333657787338</v>
+        <v>0.7500522587777068</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8172114569001262</v>
+        <v>0.7400455865735569</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997392172742471</v>
+        <v>0.9407083272172879</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0004809671349590361</v>
+        <v>0.1762926635598623</v>
       </c>
       <c r="G3" t="n">
-        <v>1.163984384540759</v>
+        <v>1.671401696456997</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6538240199795571</v>
+        <v>0.929841863803455</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001139729295304869</v>
+        <v>0.3931884789006123</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04800173919819029</v>
+        <v>1.421037642605978</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02193096292822174</v>
+        <v>0.4198721990795083</v>
       </c>
       <c r="L3" t="n">
-        <v>1.007395002814228</v>
+        <v>0.9315197916383247</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02227635367142126</v>
+        <v>0.4264847664967955</v>
       </c>
       <c r="N3" t="n">
-        <v>145.2794232333627</v>
+        <v>37.47121960766246</v>
       </c>
       <c r="O3" t="n">
-        <v>286.6145957765791</v>
+        <v>74.43580319588828</v>
       </c>
     </row>
     <row r="4">
@@ -610,144 +610,144 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998887312081506</v>
+        <v>0.9497324123807841</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8257438243668491</v>
+        <v>0.7499942612800208</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8168791402001343</v>
+        <v>0.7402234270240162</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997876350384005</v>
+        <v>0.9408422714716651</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0004631593165975234</v>
+        <v>0.176213560324035</v>
       </c>
       <c r="G4" t="n">
-        <v>1.16525184883479</v>
+        <v>1.671789525991078</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6550126975465989</v>
+        <v>0.9292057388239433</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0009281234688085012</v>
+        <v>0.392300237176871</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04967257101573677</v>
+        <v>1.420914449951253</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02152113650803608</v>
+        <v>0.4197779893277338</v>
       </c>
       <c r="L4" t="n">
-        <v>1.007121202678363</v>
+        <v>0.9315505189865996</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0218600728947938</v>
+        <v>0.4263890730356057</v>
       </c>
       <c r="N4" t="n">
-        <v>145.3548789334853</v>
+        <v>37.47211721720005</v>
       </c>
       <c r="O4" t="n">
-        <v>286.6900514767017</v>
+        <v>74.43670080542587</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_6</t>
+          <t>model_1_44_5</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999887726554646</v>
+        <v>0.9498867433983482</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8254070742907151</v>
+        <v>0.7498625628114581</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8168633078619552</v>
+        <v>0.7412909978257588</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998047404296219</v>
+        <v>0.9417157144344206</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0004673412136317258</v>
+        <v>0.1756725513088535</v>
       </c>
       <c r="G5" t="n">
-        <v>1.16750369814449</v>
+        <v>1.672670194256772</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6550693289022536</v>
+        <v>0.925387099967422</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0008533657737721548</v>
+        <v>0.386508062764945</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04906184281884161</v>
+        <v>1.420132358795434</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02161807608534409</v>
+        <v>0.4191330949815983</v>
       </c>
       <c r="L5" t="n">
-        <v>1.007185500502658</v>
+        <v>0.9317606718615805</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02195853917354038</v>
+        <v>0.4257340222481764</v>
       </c>
       <c r="N5" t="n">
-        <v>145.3369018338305</v>
+        <v>37.47826704151616</v>
       </c>
       <c r="O5" t="n">
-        <v>286.672074377047</v>
+        <v>74.44285062974198</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_5</t>
+          <t>model_1_44_6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998876393265462</v>
+        <v>0.9497996205361314</v>
       </c>
       <c r="C6" t="n">
-        <v>0.825136102770162</v>
+        <v>0.7498404491932973</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8166488806766823</v>
+        <v>0.7407540126163472</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998323719353533</v>
+        <v>0.941245134008833</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0004677043029255102</v>
+        <v>0.1759779614242772</v>
       </c>
       <c r="G6" t="n">
-        <v>1.169315685950137</v>
+        <v>1.672818068123237</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6558363225107722</v>
+        <v>0.9273078649252956</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0007326045674285343</v>
+        <v>0.389628683132923</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05035255358692887</v>
+        <v>1.420500744646815</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02162647227185956</v>
+        <v>0.4194972722489113</v>
       </c>
       <c r="L6" t="n">
-        <v>1.007191083101041</v>
+        <v>0.9316420364747322</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02196706759160037</v>
+        <v>0.4261039349434058</v>
       </c>
       <c r="N6" t="n">
-        <v>145.3353485861838</v>
+        <v>37.47479302192961</v>
       </c>
       <c r="O6" t="n">
-        <v>286.6705211294002</v>
+        <v>74.43937661015543</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998914153413192</v>
+        <v>0.9503019862021899</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8250305951034891</v>
+        <v>0.749248855654025</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8168130464564061</v>
+        <v>0.7451377269948185</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9998660382325408</v>
+        <v>0.9446240487391546</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0004519865406250785</v>
+        <v>0.1742169132659432</v>
       </c>
       <c r="G7" t="n">
-        <v>1.170021216202997</v>
+        <v>1.676774056844388</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6552491110355789</v>
+        <v>0.9116275727758681</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000585468805049069</v>
+        <v>0.3672216522498711</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04949411570314699</v>
+        <v>1.414795095916468</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02125997508524125</v>
+        <v>0.4173929961869787</v>
       </c>
       <c r="L7" t="n">
-        <v>1.006949418155571</v>
+        <v>0.932326108871067</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02159479844065559</v>
+        <v>0.4239665186370021</v>
       </c>
       <c r="N7" t="n">
-        <v>145.4037163119071</v>
+        <v>37.49490825639575</v>
       </c>
       <c r="O7" t="n">
-        <v>286.7388888551235</v>
+        <v>74.45949184462157</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998878043474929</v>
+        <v>0.9506346702278846</v>
       </c>
       <c r="C8" t="n">
-        <v>0.824828073427588</v>
+        <v>0.7484321468678834</v>
       </c>
       <c r="D8" t="n">
-        <v>0.816817666917226</v>
+        <v>0.7514060038928234</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998801569910887</v>
+        <v>0.9489824833618711</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0004670173988291423</v>
+        <v>0.1730506858934525</v>
       </c>
       <c r="G8" t="n">
-        <v>1.171375479582274</v>
+        <v>1.682235392257915</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6552325839151359</v>
+        <v>0.8892063097672819</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0005237639406496659</v>
+        <v>0.3383190053980296</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05016396373354179</v>
+        <v>1.399754479785127</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02161058534212209</v>
+        <v>0.4159936128036733</v>
       </c>
       <c r="L8" t="n">
-        <v>1.007180521760453</v>
+        <v>0.9327791254166939</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02195093045860064</v>
+        <v>0.4225450963642799</v>
       </c>
       <c r="N8" t="n">
-        <v>145.3382880887919</v>
+        <v>37.50834149070428</v>
       </c>
       <c r="O8" t="n">
-        <v>286.6734606320082</v>
+        <v>74.4729250789301</v>
       </c>
     </row>
     <row r="9">
@@ -855,144 +855,144 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998827575364394</v>
+        <v>0.950637497142079</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8247949523838132</v>
+        <v>0.7483563348306981</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8168948591146034</v>
+        <v>0.7517237535524174</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998868417098993</v>
+        <v>0.9491847743799799</v>
       </c>
       <c r="F9" t="n">
-        <v>0.000488024884573202</v>
+        <v>0.17304077611583</v>
       </c>
       <c r="G9" t="n">
-        <v>1.171596960154505</v>
+        <v>1.682742347699656</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6549564719009778</v>
+        <v>0.8880697376590982</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0004945489309614437</v>
+        <v>0.3369775270086961</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05309606944312367</v>
+        <v>1.398823520135863</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02209128526304438</v>
+        <v>0.4159817016598567</v>
       </c>
       <c r="L9" t="n">
-        <v>1.007503517667878</v>
+        <v>0.9327829748317672</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02243920092275383</v>
+        <v>0.422532997631855</v>
       </c>
       <c r="N9" t="n">
-        <v>145.2502883208667</v>
+        <v>37.50845602433152</v>
       </c>
       <c r="O9" t="n">
-        <v>286.5854608640831</v>
+        <v>74.47303961255733</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_0</t>
+          <t>model_1_44_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998796504133105</v>
+        <v>0.9506431680488208</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8245905311195155</v>
+        <v>0.7482613356841722</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8167384706231836</v>
+        <v>0.7564486148977458</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999022134326307</v>
+        <v>0.9523650175881342</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0005009583675476127</v>
+        <v>0.173020896692238</v>
       </c>
       <c r="G10" t="n">
-        <v>1.172963926090137</v>
+        <v>1.683377607429906</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6555158644668606</v>
+        <v>0.8711691825900602</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0004273680904141588</v>
+        <v>0.3158879720870349</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05564925140071774</v>
+        <v>1.383065896713544</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02238209926587792</v>
+        <v>0.4159578063845394</v>
       </c>
       <c r="L10" t="n">
-        <v>1.007702373548128</v>
+        <v>0.9327906969175431</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02273459495542464</v>
+        <v>0.422508726029838</v>
       </c>
       <c r="N10" t="n">
-        <v>145.1979751180793</v>
+        <v>37.50868580330071</v>
       </c>
       <c r="O10" t="n">
-        <v>286.5331476612957</v>
+        <v>74.47326939152653</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_1</t>
+          <t>model_1_44_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998805196028394</v>
+        <v>0.95054877973228</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8245824561606162</v>
+        <v>0.7481152628022816</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8169029855997728</v>
+        <v>0.7588444394406509</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999015947153845</v>
+        <v>0.9539040108476015</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0004973403429290145</v>
+        <v>0.1733517759346759</v>
       </c>
       <c r="G11" t="n">
-        <v>1.173017923377478</v>
+        <v>1.684354397463711</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6549274039347275</v>
+        <v>0.8625994571179774</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0004300721428740642</v>
+        <v>0.3056822485793537</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05470372522057051</v>
+        <v>1.375499770344514</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02230112873665848</v>
+        <v>0.4163553481518832</v>
       </c>
       <c r="L11" t="n">
-        <v>1.007646745418278</v>
+        <v>0.9326621681460834</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02265234922131083</v>
+        <v>0.4229125286826214</v>
       </c>
       <c r="N11" t="n">
-        <v>145.2124719432134</v>
+        <v>37.50486472422337</v>
       </c>
       <c r="O11" t="n">
-        <v>286.5476444864298</v>
+        <v>74.46944831244919</v>
       </c>
     </row>
   </sheetData>
